--- a/Data/MatrizdeCasos.xlsx
+++ b/Data/MatrizdeCasos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>Iniciar nueva solicitud</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>Dictamen Tecnico</t>
-  </si>
-  <si>
-    <t>Fallo en el estado 1</t>
   </si>
 </sst>
 </file>
@@ -573,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,19 +755,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>18</v>
@@ -778,40 +775,26 @@
       <c r="H5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
       <c r="O5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S5" s="6"/>
-      <c r="T5" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>

--- a/Data/MatrizdeCasos.xlsx
+++ b/Data/MatrizdeCasos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>Iniciar nueva solicitud</t>
   </si>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,19 +755,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>18</v>
@@ -775,23 +775,29 @@
       <c r="H5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>

--- a/Data/MatrizdeCasos.xlsx
+++ b/Data/MatrizdeCasos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>Iniciar nueva solicitud</t>
   </si>
@@ -571,7 +571,7 @@
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>25</v>
@@ -775,29 +775,23 @@
       <c r="H5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>

--- a/Data/MatrizdeCasos.xlsx
+++ b/Data/MatrizdeCasos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
   <si>
     <t>Iniciar nueva solicitud</t>
   </si>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="125" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>24</v>
@@ -775,23 +775,35 @@
       <c r="H5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="O5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>

--- a/Data/MatrizdeCasos.xlsx
+++ b/Data/MatrizdeCasos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>Iniciar nueva solicitud</t>
   </si>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="125" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5:S5"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,35 +775,23 @@
       <c r="H5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
       <c r="O5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>

--- a/Data/MatrizdeCasos.xlsx
+++ b/Data/MatrizdeCasos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>Iniciar nueva solicitud</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Dictamen Tecnico</t>
+  </si>
+  <si>
+    <t>Fallo en el estado 2</t>
   </si>
 </sst>
 </file>
@@ -794,7 +797,9 @@
         <v>25</v>
       </c>
       <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
+      <c r="T5" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
@@ -819,7 +824,9 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
+      <c r="T6" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>

--- a/Data/MatrizdeCasos.xlsx
+++ b/Data/MatrizdeCasos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="37">
   <si>
     <t>Iniciar nueva solicitud</t>
   </si>
@@ -135,7 +135,7 @@
     <t>Dictamen Tecnico</t>
   </si>
   <si>
-    <t>Fallo en el estado 2</t>
+    <t>Fallo en el estado 1</t>
   </si>
 </sst>
 </file>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,19 +758,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>18</v>
@@ -805,24 +805,48 @@
       <c r="W5" s="6"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="O6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="6"/>
       <c r="T6" s="6" t="s">
         <v>36</v>
@@ -832,26 +856,52 @@
       <c r="W6" s="6"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="O7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
+      <c r="T7" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>

--- a/Data/MatrizdeCasos.xlsx
+++ b/Data/MatrizdeCasos.xlsx
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:N5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/MatrizdeCasos.xlsx
+++ b/Data/MatrizdeCasos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="37">
   <si>
     <t>Iniciar nueva solicitud</t>
   </si>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +755,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>9</v>
@@ -770,7 +770,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>18</v>
@@ -778,10 +778,18 @@
       <c r="H5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="3" t="s">
@@ -794,7 +802,7 @@
         <v>25</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S5" s="6"/>
       <c r="T5" s="6" t="s">

--- a/Data/MatrizdeCasos.xlsx
+++ b/Data/MatrizdeCasos.xlsx
@@ -574,7 +574,7 @@
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +755,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>9</v>
@@ -764,10 +764,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>24</v>
@@ -782,14 +782,10 @@
         <v>16</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="3" t="s">
@@ -934,7 +930,9 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
+      <c r="T8" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
@@ -959,7 +957,9 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
+      <c r="T9" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>

--- a/Data/MatrizdeCasos.xlsx
+++ b/Data/MatrizdeCasos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="37">
   <si>
     <t>Iniciar nueva solicitud</t>
   </si>
@@ -571,7 +571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="76" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -984,7 +984,9 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
+      <c r="T10" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
@@ -1009,7 +1011,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
+      <c r="T11" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
@@ -1034,7 +1038,9 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
+      <c r="T12" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
@@ -1059,7 +1065,9 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
+      <c r="T13" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
@@ -1084,7 +1092,9 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
+      <c r="T14" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
@@ -1109,7 +1119,9 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
+      <c r="T15" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
@@ -1134,7 +1146,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
+      <c r="T16" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
@@ -1159,7 +1173,9 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
+      <c r="T17" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
@@ -1184,7 +1200,9 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
+      <c r="T18" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
@@ -1209,7 +1227,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
+      <c r="T19" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
@@ -1217,7 +1237,9 @@
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
+      <c r="T20" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
@@ -1225,7 +1247,9 @@
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
+      <c r="T21" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
@@ -1233,10 +1257,82 @@
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
+      <c r="T22" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T36" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/Data/MatrizdeCasos.xlsx
+++ b/Data/MatrizdeCasos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="36">
   <si>
     <t>Iniciar nueva solicitud</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>Dictamen Tecnico</t>
-  </si>
-  <si>
-    <t>Fallo en el estado 1</t>
   </si>
 </sst>
 </file>
@@ -571,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +752,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>9</v>
@@ -764,26 +761,22 @@
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -792,18 +785,16 @@
         <v>25</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S5" s="6"/>
-      <c r="T5" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
@@ -852,9 +843,7 @@
         <v>25</v>
       </c>
       <c r="S6" s="6"/>
-      <c r="T6" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
@@ -903,9 +892,7 @@
         <v>25</v>
       </c>
       <c r="S7" s="6"/>
-      <c r="T7" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
@@ -930,9 +917,7 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="6"/>
-      <c r="T8" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="T8" s="6"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
@@ -957,9 +942,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="6"/>
-      <c r="T9" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="T9" s="6"/>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
@@ -984,9 +967,7 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="6"/>
-      <c r="T10" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
@@ -1011,9 +992,7 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
@@ -1038,9 +1017,7 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="6"/>
-      <c r="T12" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
@@ -1065,9 +1042,7 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="6"/>
-      <c r="T13" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
@@ -1092,9 +1067,7 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="6"/>
-      <c r="T14" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
@@ -1119,9 +1092,7 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="6"/>
-      <c r="T15" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
@@ -1146,9 +1117,7 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="6"/>
-      <c r="T16" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
@@ -1173,9 +1142,7 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="6"/>
-      <c r="T17" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="T17" s="6"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
@@ -1200,9 +1167,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="6"/>
-      <c r="T18" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="T18" s="6"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
@@ -1227,9 +1192,7 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="6"/>
-      <c r="T19" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
@@ -1237,9 +1200,7 @@
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
-      <c r="T20" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
@@ -1247,9 +1208,7 @@
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
-      <c r="T21" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
@@ -1257,82 +1216,10 @@
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
-      <c r="T22" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="T23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="T24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="T25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="T26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="T27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="T28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="T29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="T30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="T31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="T32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T36" t="s">
-        <v>36</v>
-      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
